--- a/spartos tyrimas/tyrimorezultatai.xlsx
+++ b/spartos tyrimas/tyrimorezultatai.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\objektinisprog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proxj\source\repos\object\ConsoleApplication1\spartos tyrimas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0DD0A9-B189-458E-9706-4B85FAA982DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,24 +389,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -414,7 +426,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -439,12 +451,12 @@
         <v>51.1083</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D9" si="0">AVERAGE(D13:H13)</f>
+        <f t="shared" ref="D5:D7" si="0">AVERAGE(D13:H13)</f>
         <v>1.9987539999999998E-2</v>
       </c>
       <c r="E5">
@@ -452,7 +464,7 @@
         <v>8.8950180000000004E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F8" si="1">AVERAGE(D27:H27)</f>
+        <f t="shared" ref="F5:F7" si="1">AVERAGE(D27:H27)</f>
         <v>0.80874460000000004</v>
       </c>
       <c r="G5">
@@ -464,7 +476,7 @@
         <v>78.719560000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -473,7 +485,7 @@
         <v>2.2831400000000003E-3</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E5:E8" si="4">AVERAGE(D21:H21)</f>
+        <f t="shared" ref="E6:E8" si="4">AVERAGE(D21:H21)</f>
         <v>2.350756E-2</v>
       </c>
       <c r="F6">
@@ -489,7 +501,7 @@
         <v>32.190420000000003</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -514,7 +526,7 @@
         <v>44.957740000000001</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -536,10 +548,10 @@
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>156.47586000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+        <v>155.86784</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -559,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -579,7 +591,7 @@
         <v>7.0496999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -599,7 +611,7 @@
         <v>2.03833E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -619,7 +631,7 @@
         <v>2.2491E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>5</v>
       </c>
@@ -639,7 +651,7 @@
         <v>5.4221E-3</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>1</v>
       </c>
@@ -659,7 +671,7 @@
         <v>2.80545E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -679,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -699,7 +711,7 @@
         <v>5.3272300000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -719,7 +731,7 @@
         <v>9.0551699999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -739,7 +751,7 @@
         <v>2.5571400000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>5</v>
       </c>
@@ -759,7 +771,7 @@
         <v>4.4986900000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -779,7 +791,7 @@
         <v>0.16111</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>8</v>
       </c>
@@ -799,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -819,7 +831,7 @@
         <v>0.51375400000000004</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -839,7 +851,7 @@
         <v>0.80431600000000003</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -859,7 +871,7 @@
         <v>0.27304400000000001</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>5</v>
       </c>
@@ -879,7 +891,7 @@
         <v>0.43921399999999999</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>1</v>
       </c>
@@ -899,7 +911,7 @@
         <v>1.51657</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>9</v>
       </c>
@@ -919,7 +931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -939,7 +951,7 @@
         <v>5.17767</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -959,7 +971,7 @@
         <v>7.9188799999999997</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -979,7 +991,7 @@
         <v>3.0243199999999999</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1011,7 @@
         <v>4.53979</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>15.483000000000001</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>51.081299999999999</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>79.069500000000005</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>33.356900000000003</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>5</v>
       </c>
@@ -1119,7 +1131,7 @@
         <v>44.540199999999999</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>1</v>
       </c>
@@ -1130,10 +1142,10 @@
         <v>156.191</v>
       </c>
       <c r="F44">
-        <v>155.98759999999999</v>
+        <v>153.3836</v>
       </c>
       <c r="G44">
-        <v>156.99870000000001</v>
+        <v>156.5626</v>
       </c>
       <c r="H44">
         <v>156.96700000000001</v>
